--- a/Stand_up_status.xlsx
+++ b/Stand_up_status.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\OneDrive\Documents\prasanna\Sql_queries\Daily_standup_all\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5AC1921-49CC-4E09-A17C-D373BD34CB77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{768520A4-AC85-4E84-B7D2-F624CCBEC452}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{507338BD-C2E8-496E-91CE-96DE2F738050}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="7" xr2:uid="{507338BD-C2E8-496E-91CE-96DE2F738050}"/>
   </bookViews>
   <sheets>
     <sheet name="Prasanna" sheetId="2" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="456" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="494" uniqueCount="160">
   <si>
     <t>Task</t>
   </si>
@@ -400,9 +400,6 @@
     <t>how to check logs pods and container(vedio )</t>
   </si>
   <si>
-    <t>kubernetes commands</t>
-  </si>
-  <si>
     <t>Prepared Excel sheet with Docker commands</t>
   </si>
   <si>
@@ -506,13 +503,49 @@
   </si>
   <si>
     <t>slide34,35,36,37</t>
+  </si>
+  <si>
+    <t>Saturday</t>
+  </si>
+  <si>
+    <t>Sunday</t>
+  </si>
+  <si>
+    <t>docker file create and run file</t>
+  </si>
+  <si>
+    <t>virtual environment create</t>
+  </si>
+  <si>
+    <t>sql expalin to team</t>
+  </si>
+  <si>
+    <t>supply chain industry explain to team</t>
+  </si>
+  <si>
+    <t>docer file create and execution</t>
+  </si>
+  <si>
+    <t>virtual env create in vs code</t>
+  </si>
+  <si>
+    <t>kubernetes commands in CLI</t>
+  </si>
+  <si>
+    <t>saturday</t>
+  </si>
+  <si>
+    <t>Virtual environment and docker file creation expalin to team</t>
+  </si>
+  <si>
+    <t xml:space="preserve">html code abd backround setup </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -520,8 +553,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -540,6 +579,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -553,7 +598,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -588,6 +633,8 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -604,6 +651,18 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -918,11 +977,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C03E2C98-7DD8-49D1-86F4-DA432BD5D96A}">
-  <dimension ref="A1:F44"/>
+  <dimension ref="A1:F50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C45" sqref="C45"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H51" sqref="H51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -943,7 +1002,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>1</v>
@@ -956,7 +1015,7 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="14">
+      <c r="A2" s="16">
         <v>45628</v>
       </c>
       <c r="B2" t="s">
@@ -967,7 +1026,7 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="14"/>
+      <c r="A3" s="16"/>
       <c r="B3" t="s">
         <v>5</v>
       </c>
@@ -976,7 +1035,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="14"/>
+      <c r="A4" s="16"/>
       <c r="B4" t="s">
         <v>4</v>
       </c>
@@ -985,7 +1044,7 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="14">
+      <c r="A5" s="16">
         <v>45629</v>
       </c>
       <c r="B5" t="s">
@@ -996,7 +1055,7 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="14"/>
+      <c r="A6" s="16"/>
       <c r="B6" t="s">
         <v>85</v>
       </c>
@@ -1005,7 +1064,7 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="14"/>
+      <c r="A7" s="16"/>
       <c r="B7" t="s">
         <v>20</v>
       </c>
@@ -1014,7 +1073,7 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="14">
+      <c r="A8" s="16">
         <v>45630</v>
       </c>
       <c r="B8" t="s">
@@ -1025,7 +1084,7 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="14"/>
+      <c r="A9" s="16"/>
       <c r="B9" t="s">
         <v>90</v>
       </c>
@@ -1034,7 +1093,7 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="14"/>
+      <c r="A10" s="16"/>
       <c r="B10" t="s">
         <v>91</v>
       </c>
@@ -1043,7 +1102,7 @@
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="14">
+      <c r="A11" s="16">
         <v>45631</v>
       </c>
       <c r="B11" t="s">
@@ -1054,7 +1113,7 @@
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="14"/>
+      <c r="A12" s="16"/>
       <c r="B12" t="s">
         <v>28</v>
       </c>
@@ -1063,7 +1122,7 @@
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="14"/>
+      <c r="A13" s="16"/>
       <c r="B13" t="s">
         <v>83</v>
       </c>
@@ -1072,7 +1131,7 @@
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="14">
+      <c r="A14" s="16">
         <v>45632</v>
       </c>
       <c r="B14" t="s">
@@ -1083,7 +1142,7 @@
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="14"/>
+      <c r="A15" s="16"/>
       <c r="B15" t="s">
         <v>46</v>
       </c>
@@ -1092,7 +1151,7 @@
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="14"/>
+      <c r="A16" s="16"/>
       <c r="B16" t="s">
         <v>43</v>
       </c>
@@ -1101,7 +1160,7 @@
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="14">
+      <c r="A17" s="16">
         <v>45635</v>
       </c>
       <c r="B17" t="s">
@@ -1112,7 +1171,7 @@
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="14"/>
+      <c r="A18" s="16"/>
       <c r="B18" t="s">
         <v>79</v>
       </c>
@@ -1121,7 +1180,7 @@
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="14"/>
+      <c r="A19" s="16"/>
       <c r="B19" t="s">
         <v>51</v>
       </c>
@@ -1130,7 +1189,7 @@
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="14">
+      <c r="A20" s="16">
         <v>45636</v>
       </c>
       <c r="B20" t="s">
@@ -1141,7 +1200,7 @@
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="14"/>
+      <c r="A21" s="16"/>
       <c r="B21" t="s">
         <v>43</v>
       </c>
@@ -1150,7 +1209,7 @@
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" s="14">
+      <c r="A22" s="16">
         <v>45637</v>
       </c>
       <c r="B22" t="s">
@@ -1161,7 +1220,7 @@
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" s="14"/>
+      <c r="A23" s="16"/>
       <c r="B23" t="s">
         <v>43</v>
       </c>
@@ -1170,7 +1229,7 @@
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24" s="14">
+      <c r="A24" s="16">
         <v>45638</v>
       </c>
       <c r="B24" t="s">
@@ -1181,7 +1240,7 @@
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25" s="14"/>
+      <c r="A25" s="16"/>
       <c r="B25" t="s">
         <v>67</v>
       </c>
@@ -1190,7 +1249,7 @@
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26" s="14"/>
+      <c r="A26" s="16"/>
       <c r="B26" t="s">
         <v>63</v>
       </c>
@@ -1199,7 +1258,7 @@
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A27" s="14">
+      <c r="A27" s="16">
         <v>45639</v>
       </c>
       <c r="B27" t="s">
@@ -1210,7 +1269,7 @@
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A28" s="14"/>
+      <c r="A28" s="16"/>
       <c r="B28" t="s">
         <v>63</v>
       </c>
@@ -1219,7 +1278,7 @@
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A29" s="14">
+      <c r="A29" s="16">
         <v>45642</v>
       </c>
       <c r="B29" t="s">
@@ -1230,7 +1289,7 @@
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A30" s="14"/>
+      <c r="A30" s="16"/>
       <c r="B30" t="s">
         <v>74</v>
       </c>
@@ -1239,156 +1298,240 @@
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A31" s="14">
+      <c r="A31" s="16">
         <v>45643</v>
       </c>
       <c r="B31" t="s">
         <v>78</v>
       </c>
       <c r="C31" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F31" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A32" s="16"/>
+      <c r="A32" s="18"/>
       <c r="B32" t="s">
         <v>79</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F32" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A33" s="15">
+      <c r="A33" s="17">
         <v>45644</v>
       </c>
       <c r="B33" t="s">
         <v>78</v>
       </c>
       <c r="C33" t="s">
+        <v>130</v>
+      </c>
+      <c r="F33" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A34" s="17"/>
+      <c r="B34" t="s">
         <v>131</v>
       </c>
-      <c r="F33" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A34" s="15"/>
-      <c r="B34" t="s">
+      <c r="C34" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="C34" s="3" t="s">
+      <c r="F34" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A35" s="17"/>
+      <c r="B35" t="s">
         <v>133</v>
       </c>
-      <c r="F34" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A35" s="15"/>
-      <c r="B35" t="s">
+      <c r="C35" t="s">
         <v>134</v>
       </c>
-      <c r="C35" t="s">
+      <c r="F35" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A36" s="17"/>
+      <c r="B36" t="s">
         <v>135</v>
       </c>
-      <c r="F35" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A36" s="15"/>
-      <c r="B36" t="s">
+      <c r="C36" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="C36" s="3" t="s">
+      <c r="F36" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A37" s="16">
+        <v>45645</v>
+      </c>
+      <c r="B37" t="s">
+        <v>142</v>
+      </c>
+      <c r="C37" t="s">
+        <v>144</v>
+      </c>
+      <c r="F37" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A38" s="16"/>
+      <c r="B38" t="s">
+        <v>135</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="F38" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A39" s="16"/>
+      <c r="B39" t="s">
+        <v>141</v>
+      </c>
+      <c r="C39" t="s">
+        <v>146</v>
+      </c>
+      <c r="F39" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A40" s="16"/>
+      <c r="B40" t="s">
         <v>137</v>
       </c>
-      <c r="F36" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A37" s="14">
-        <v>45645</v>
-      </c>
-      <c r="B37" t="s">
+      <c r="C40" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="F40" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A41" s="16">
+        <v>45646</v>
+      </c>
+      <c r="B41" t="s">
         <v>143</v>
       </c>
-      <c r="C37" t="s">
-        <v>145</v>
-      </c>
-      <c r="F37" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A38" s="14"/>
-      <c r="B38" t="s">
-        <v>136</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="F38" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A39" s="14"/>
-      <c r="B39" t="s">
-        <v>142</v>
-      </c>
-      <c r="C39" t="s">
-        <v>147</v>
-      </c>
-      <c r="F39" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A40" s="14"/>
-      <c r="B40" t="s">
-        <v>138</v>
-      </c>
-      <c r="C40" s="3" t="s">
+      <c r="F41" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A42" s="16"/>
+      <c r="B42" t="s">
+        <v>135</v>
+      </c>
+      <c r="F42" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A43" s="16"/>
+      <c r="B43" t="s">
+        <v>137</v>
+      </c>
+      <c r="F43" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A44" s="14">
+        <v>45647</v>
+      </c>
+      <c r="B44" s="15" t="s">
         <v>148</v>
       </c>
-      <c r="F40" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A41" s="9">
-        <v>45646</v>
-      </c>
-      <c r="B41" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B42" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B43" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B44" t="s">
-        <v>138</v>
+      <c r="C44" s="15"/>
+      <c r="D44" s="15"/>
+      <c r="E44" s="15"/>
+      <c r="F44" s="15"/>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A45" s="14">
+        <v>45648</v>
+      </c>
+      <c r="B45" s="15" t="s">
+        <v>149</v>
+      </c>
+      <c r="C45" s="15"/>
+      <c r="D45" s="15"/>
+      <c r="E45" s="15"/>
+      <c r="F45" s="15"/>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A46" s="16">
+        <v>45649</v>
+      </c>
+      <c r="B46" t="s">
+        <v>150</v>
+      </c>
+      <c r="D46" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A47" s="16"/>
+      <c r="B47" t="s">
+        <v>151</v>
+      </c>
+      <c r="D47" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A48" s="16"/>
+      <c r="B48" t="s">
+        <v>137</v>
+      </c>
+      <c r="D48" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A49" s="16"/>
+      <c r="B49" t="s">
+        <v>153</v>
+      </c>
+      <c r="D49" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A50" s="16"/>
+      <c r="B50" t="s">
+        <v>152</v>
+      </c>
+      <c r="D50" t="s">
+        <v>121</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="14">
+  <mergeCells count="16">
+    <mergeCell ref="A41:A43"/>
+    <mergeCell ref="A46:A50"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="A14:A16"/>
     <mergeCell ref="A37:A40"/>
     <mergeCell ref="A33:A36"/>
     <mergeCell ref="A31:A32"/>
@@ -1398,12 +1541,8 @@
     <mergeCell ref="A24:A26"/>
     <mergeCell ref="A27:A28"/>
     <mergeCell ref="A29:A30"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="A8:A10"/>
-    <mergeCell ref="A11:A13"/>
-    <mergeCell ref="A14:A16"/>
   </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1434,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>1</v>
@@ -1947,7 +2086,7 @@
         <v>78</v>
       </c>
       <c r="C31" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D31">
         <v>0</v>
@@ -1967,7 +2106,7 @@
         <v>79</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D32">
         <v>0</v>
@@ -2001,7 +2140,7 @@
         <v>45644</v>
       </c>
       <c r="B34" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D34">
         <v>1</v>
@@ -2020,11 +2159,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14D6E081-0E93-4792-91B4-448F5F386D8E}">
-  <dimension ref="A1:E48"/>
+  <dimension ref="A1:E52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F49" sqref="F49"/>
+      <pane ySplit="1" topLeftCell="A40" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D52" sqref="D52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2055,7 +2194,7 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="14">
+      <c r="A2" s="16">
         <v>45628</v>
       </c>
       <c r="B2" s="5" t="s">
@@ -2066,7 +2205,7 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="14"/>
+      <c r="A3" s="16"/>
       <c r="B3" s="5" t="s">
         <v>105</v>
       </c>
@@ -2075,10 +2214,10 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="14"/>
+      <c r="A4" s="16"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="14">
+      <c r="A5" s="16">
         <v>45629</v>
       </c>
       <c r="B5" s="5" t="s">
@@ -2089,24 +2228,24 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="14"/>
+      <c r="A6" s="16"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="14"/>
+      <c r="A7" s="16"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="14">
+      <c r="A8" s="16">
         <v>45630</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="14"/>
+      <c r="A9" s="16"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="14"/>
+      <c r="A10" s="16"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="14">
+      <c r="A11" s="16">
         <v>45631</v>
       </c>
       <c r="B11" s="5" t="s">
@@ -2117,7 +2256,7 @@
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="14"/>
+      <c r="A12" s="16"/>
       <c r="B12" s="5" t="s">
         <v>31</v>
       </c>
@@ -2126,7 +2265,7 @@
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="14"/>
+      <c r="A13" s="16"/>
       <c r="B13" s="5" t="s">
         <v>29</v>
       </c>
@@ -2135,7 +2274,7 @@
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="14">
+      <c r="A14" s="16">
         <v>45632</v>
       </c>
       <c r="B14" s="5" t="s">
@@ -2146,7 +2285,7 @@
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="14"/>
+      <c r="A15" s="16"/>
       <c r="B15" s="5" t="s">
         <v>43</v>
       </c>
@@ -2155,10 +2294,10 @@
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="14"/>
+      <c r="A16" s="16"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="14">
+      <c r="A17" s="16">
         <v>45635</v>
       </c>
       <c r="B17" s="5" t="s">
@@ -2169,7 +2308,7 @@
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="14"/>
+      <c r="A18" s="16"/>
       <c r="B18" s="5" t="s">
         <v>53</v>
       </c>
@@ -2178,13 +2317,13 @@
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="14"/>
+      <c r="A19" s="16"/>
       <c r="B19" s="5" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="14">
+      <c r="A20" s="16">
         <v>45636</v>
       </c>
       <c r="B20" s="5" t="s">
@@ -2195,7 +2334,7 @@
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="14"/>
+      <c r="A21" s="16"/>
       <c r="B21" s="5" t="s">
         <v>53</v>
       </c>
@@ -2204,7 +2343,7 @@
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="14"/>
+      <c r="A22" s="16"/>
       <c r="B22" s="5" t="s">
         <v>31</v>
       </c>
@@ -2213,7 +2352,7 @@
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="14">
+      <c r="A23" s="16">
         <v>45637</v>
       </c>
       <c r="B23" s="5" t="s">
@@ -2224,7 +2363,7 @@
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" s="14"/>
+      <c r="A24" s="16"/>
       <c r="B24" s="5" t="s">
         <v>43</v>
       </c>
@@ -2233,7 +2372,7 @@
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" s="14"/>
+      <c r="A25" s="16"/>
       <c r="B25" s="5" t="s">
         <v>53</v>
       </c>
@@ -2242,7 +2381,7 @@
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" s="14">
+      <c r="A26" s="16">
         <v>45638</v>
       </c>
       <c r="B26" s="5" t="s">
@@ -2253,7 +2392,7 @@
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" s="14"/>
+      <c r="A27" s="16"/>
       <c r="B27" s="5" t="s">
         <v>63</v>
       </c>
@@ -2262,7 +2401,7 @@
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A28" s="14"/>
+      <c r="A28" s="16"/>
       <c r="B28" s="5" t="s">
         <v>64</v>
       </c>
@@ -2271,7 +2410,7 @@
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A29" s="17">
+      <c r="A29" s="19">
         <v>45639</v>
       </c>
       <c r="B29" s="5" t="s">
@@ -2282,7 +2421,7 @@
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A30" s="17"/>
+      <c r="A30" s="19"/>
       <c r="B30" s="5" t="s">
         <v>72</v>
       </c>
@@ -2291,7 +2430,7 @@
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31" s="17"/>
+      <c r="A31" s="19"/>
       <c r="B31" s="5" t="s">
         <v>63</v>
       </c>
@@ -2300,7 +2439,7 @@
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A32" s="17"/>
+      <c r="A32" s="19"/>
       <c r="B32" s="5" t="s">
         <v>71</v>
       </c>
@@ -2309,7 +2448,7 @@
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A33" s="14">
+      <c r="A33" s="16">
         <v>45642</v>
       </c>
       <c r="B33" s="5" t="s">
@@ -2320,7 +2459,7 @@
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A34" s="14"/>
+      <c r="A34" s="16"/>
       <c r="B34" s="5" t="s">
         <v>63</v>
       </c>
@@ -2329,7 +2468,7 @@
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A35" s="14"/>
+      <c r="A35" s="16"/>
       <c r="B35" s="5" t="s">
         <v>107</v>
       </c>
@@ -2338,7 +2477,7 @@
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A36" s="14">
+      <c r="A36" s="16">
         <v>45643</v>
       </c>
       <c r="B36" s="5" t="s">
@@ -2349,7 +2488,7 @@
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A37" s="16"/>
+      <c r="A37" s="18"/>
       <c r="B37" s="5" t="s">
         <v>110</v>
       </c>
@@ -2358,7 +2497,7 @@
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A38" s="16"/>
+      <c r="A38" s="18"/>
       <c r="B38" s="5" t="s">
         <v>70</v>
       </c>
@@ -2367,13 +2506,13 @@
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A39" s="16"/>
+      <c r="A39" s="18"/>
       <c r="E39" s="5" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A40" s="17">
+      <c r="A40" s="19">
         <v>45644</v>
       </c>
       <c r="B40" s="5" t="s">
@@ -2384,16 +2523,16 @@
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A41" s="17"/>
+      <c r="A41" s="19"/>
       <c r="B41" s="5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E41" s="5" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A42" s="17"/>
+      <c r="A42" s="19"/>
       <c r="B42" s="5" t="s">
         <v>70</v>
       </c>
@@ -2402,27 +2541,27 @@
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A43" s="17">
+      <c r="A43" s="19">
         <v>45645</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E43" s="5" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A44" s="17"/>
+      <c r="A44" s="19"/>
       <c r="B44" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E44" s="5" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A45" s="17"/>
+      <c r="A45" s="19"/>
       <c r="B45" s="5" t="s">
         <v>70</v>
       </c>
@@ -2431,34 +2570,84 @@
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A46" s="13">
+      <c r="A46" s="16">
         <v>45646</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="C46" s="5" t="s">
-        <v>122</v>
+        <v>135</v>
+      </c>
+      <c r="E46" s="5" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A47" s="16"/>
       <c r="B47" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="E47" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A48" s="16"/>
+      <c r="B48" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="C47" s="5" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B48" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="C48" s="5" t="s">
-        <v>122</v>
+      <c r="E48" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A49" s="22">
+        <v>45647</v>
+      </c>
+      <c r="B49" s="23" t="s">
+        <v>148</v>
+      </c>
+      <c r="C49" s="23"/>
+      <c r="D49" s="23"/>
+      <c r="E49" s="23"/>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A50" s="22">
+        <v>45648</v>
+      </c>
+      <c r="B50" s="23" t="s">
+        <v>149</v>
+      </c>
+      <c r="C50" s="23"/>
+      <c r="D50" s="23"/>
+      <c r="E50" s="23"/>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A51" s="13">
+        <v>45649</v>
+      </c>
+      <c r="B51" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="C51" s="5" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B52" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="C52" s="5" t="s">
+        <v>121</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="14">
+  <mergeCells count="15">
+    <mergeCell ref="A46:A48"/>
+    <mergeCell ref="A17:A19"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="A14:A16"/>
     <mergeCell ref="A43:A45"/>
     <mergeCell ref="A40:A42"/>
     <mergeCell ref="A36:A39"/>
@@ -2467,12 +2656,6 @@
     <mergeCell ref="A26:A28"/>
     <mergeCell ref="A29:A32"/>
     <mergeCell ref="A33:A35"/>
-    <mergeCell ref="A17:A19"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="A8:A10"/>
-    <mergeCell ref="A11:A13"/>
-    <mergeCell ref="A14:A16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2513,7 +2696,7 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="14">
+      <c r="A2" s="16">
         <v>45628</v>
       </c>
       <c r="B2" t="s">
@@ -2524,7 +2707,7 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="14"/>
+      <c r="A3" s="16"/>
       <c r="B3" t="s">
         <v>10</v>
       </c>
@@ -2533,15 +2716,15 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="14"/>
+      <c r="A4" s="16"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="14">
+      <c r="A5" s="16">
         <v>45629</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="14"/>
+      <c r="A6" s="16"/>
       <c r="B6" t="s">
         <v>21</v>
       </c>
@@ -2550,21 +2733,21 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="14"/>
+      <c r="A7" s="16"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="14">
+      <c r="A8" s="16">
         <v>45630</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="14"/>
+      <c r="A9" s="16"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="14"/>
+      <c r="A10" s="16"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="14">
+      <c r="A11" s="16">
         <v>45631</v>
       </c>
       <c r="B11" t="s">
@@ -2575,7 +2758,7 @@
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="14"/>
+      <c r="A12" s="16"/>
       <c r="B12" t="s">
         <v>33</v>
       </c>
@@ -2584,80 +2767,80 @@
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="14"/>
+      <c r="A13" s="16"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="14">
+      <c r="A14" s="16">
         <v>45632</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="14"/>
+      <c r="A15" s="16"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="14"/>
+      <c r="A16" s="16"/>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A17" s="14">
+      <c r="A17" s="16">
         <v>45635</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A18" s="14"/>
+      <c r="A18" s="16"/>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A19" s="14"/>
+      <c r="A19" s="16"/>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A20" s="14">
+      <c r="A20" s="16">
         <v>45636</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A21" s="14"/>
+      <c r="A21" s="16"/>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A22" s="14">
+      <c r="A22" s="16">
         <v>45637</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A23" s="14"/>
+      <c r="A23" s="16"/>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A24" s="14">
+      <c r="A24" s="16">
         <v>45638</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A25" s="14"/>
+      <c r="A25" s="16"/>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A26" s="14"/>
+      <c r="A26" s="16"/>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A27" s="14">
+      <c r="A27" s="16">
         <v>45639</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A28" s="14"/>
+      <c r="A28" s="16"/>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A29" s="14">
+      <c r="A29" s="16">
         <v>45642</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A30" s="14"/>
+      <c r="A30" s="16"/>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A31" s="14">
+      <c r="A31" s="16">
         <v>45643</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A32" s="16"/>
+      <c r="A32" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="12">
@@ -2680,11 +2863,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F98E8FEA-DC7B-4694-AF1E-A0F0DA96C944}">
-  <dimension ref="A1:E39"/>
+  <dimension ref="A1:E44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E40" sqref="E40"/>
+      <selection pane="bottomLeft" activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2715,7 +2898,7 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="17">
+      <c r="A2" s="19">
         <v>45628</v>
       </c>
       <c r="B2" s="4" t="s">
@@ -2726,7 +2909,7 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="17"/>
+      <c r="A3" s="19"/>
       <c r="B3" s="4" t="s">
         <v>12</v>
       </c>
@@ -2735,10 +2918,10 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="17"/>
+      <c r="A4" s="19"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="17">
+      <c r="A5" s="19">
         <v>45629</v>
       </c>
       <c r="B5" s="4" t="s">
@@ -2749,24 +2932,24 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="17"/>
+      <c r="A6" s="19"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="17"/>
+      <c r="A7" s="19"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="17">
+      <c r="A8" s="19">
         <v>45630</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="17"/>
+      <c r="A9" s="19"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="17"/>
+      <c r="A10" s="19"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="17">
+      <c r="A11" s="19">
         <v>45631</v>
       </c>
       <c r="B11" s="4" t="s">
@@ -2777,7 +2960,7 @@
       </c>
     </row>
     <row r="12" spans="1:5" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A12" s="17"/>
+      <c r="A12" s="19"/>
       <c r="B12" s="10" t="s">
         <v>35</v>
       </c>
@@ -2786,10 +2969,10 @@
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="17"/>
+      <c r="A13" s="19"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="17">
+      <c r="A14" s="19">
         <v>45632</v>
       </c>
       <c r="B14" s="4" t="s">
@@ -2800,7 +2983,7 @@
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="17"/>
+      <c r="A15" s="19"/>
       <c r="B15" s="4" t="s">
         <v>48</v>
       </c>
@@ -2809,10 +2992,10 @@
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="17"/>
+      <c r="A16" s="19"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="17">
+      <c r="A17" s="19">
         <v>45635</v>
       </c>
       <c r="B17" s="4" t="s">
@@ -2823,7 +3006,7 @@
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="17"/>
+      <c r="A18" s="19"/>
       <c r="B18" s="4" t="s">
         <v>48</v>
       </c>
@@ -2832,7 +3015,7 @@
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="17"/>
+      <c r="A19" s="19"/>
       <c r="B19" s="4" t="s">
         <v>43</v>
       </c>
@@ -2841,7 +3024,7 @@
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="17">
+      <c r="A20" s="19">
         <v>45636</v>
       </c>
       <c r="B20" s="4" t="s">
@@ -2852,7 +3035,7 @@
       </c>
     </row>
     <row r="21" spans="1:5" ht="172.8" x14ac:dyDescent="0.3">
-      <c r="A21" s="17"/>
+      <c r="A21" s="19"/>
       <c r="B21" s="10" t="s">
         <v>92</v>
       </c>
@@ -2861,7 +3044,7 @@
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="17">
+      <c r="A22" s="19">
         <v>45637</v>
       </c>
       <c r="B22" s="4" t="s">
@@ -2872,7 +3055,7 @@
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="17"/>
+      <c r="A23" s="19"/>
       <c r="B23" s="10" t="s">
         <v>93</v>
       </c>
@@ -2881,7 +3064,7 @@
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" s="17">
+      <c r="A24" s="19">
         <v>45638</v>
       </c>
       <c r="B24" s="4" t="s">
@@ -2892,7 +3075,7 @@
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" s="17"/>
+      <c r="A25" s="19"/>
       <c r="B25" s="10" t="s">
         <v>93</v>
       </c>
@@ -2901,7 +3084,7 @@
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" s="17"/>
+      <c r="A26" s="19"/>
       <c r="B26" s="10" t="s">
         <v>65</v>
       </c>
@@ -2910,31 +3093,31 @@
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" s="17">
+      <c r="A27" s="19">
         <v>45639</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A28" s="17"/>
+      <c r="A28" s="19"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A29" s="17">
+      <c r="A29" s="19">
         <v>45642</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A30" s="17"/>
+      <c r="A30" s="19"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31" s="17">
+      <c r="A31" s="19">
         <v>45643</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A32" s="18"/>
+      <c r="A32" s="20"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A34" s="17">
+      <c r="A34" s="19">
         <v>45644</v>
       </c>
       <c r="B34" s="4" t="s">
@@ -2945,7 +3128,7 @@
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A35" s="17"/>
+      <c r="A35" s="19"/>
       <c r="B35" s="4" t="s">
         <v>79</v>
       </c>
@@ -2966,7 +3149,10 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B37" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
@@ -2976,20 +3162,72 @@
       <c r="B38" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="C38" s="4" t="s">
-        <v>122</v>
+      <c r="E38" s="4" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B39" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="C39" s="4" t="s">
-        <v>122</v>
+      <c r="E39" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A40" s="24">
+        <v>45647</v>
+      </c>
+      <c r="B40" s="25" t="s">
+        <v>148</v>
+      </c>
+      <c r="C40" s="25"/>
+      <c r="D40" s="25"/>
+      <c r="E40" s="25"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A41" s="24">
+        <v>45648</v>
+      </c>
+      <c r="B41" s="25" t="s">
+        <v>149</v>
+      </c>
+      <c r="C41" s="25"/>
+      <c r="D41" s="25"/>
+      <c r="E41" s="25"/>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A42" s="19">
+        <v>45649</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A43" s="19"/>
+      <c r="B43" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A44" s="19"/>
+      <c r="B44" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>121</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="13">
+  <mergeCells count="14">
+    <mergeCell ref="A42:A44"/>
     <mergeCell ref="A34:A35"/>
     <mergeCell ref="A31:A32"/>
     <mergeCell ref="A2:A4"/>
@@ -3010,11 +3248,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C5D1B68-9E94-4760-88A7-E38423802317}">
-  <dimension ref="A1:E33"/>
+  <dimension ref="A1:E36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C35" sqref="C35"/>
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3045,7 +3283,7 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="17">
+      <c r="A2" s="19">
         <v>45628</v>
       </c>
       <c r="B2" s="4" t="s">
@@ -3056,7 +3294,7 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="17"/>
+      <c r="A3" s="19"/>
       <c r="B3" s="4" t="s">
         <v>108</v>
       </c>
@@ -3065,7 +3303,7 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="17">
+      <c r="A4" s="19">
         <v>45629</v>
       </c>
       <c r="B4" s="4" t="s">
@@ -3076,18 +3314,18 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="17"/>
+      <c r="A5" s="19"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="17">
+      <c r="A6" s="19">
         <v>45630</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="17"/>
+      <c r="A7" s="19"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="17">
+      <c r="A8" s="19">
         <v>45631</v>
       </c>
       <c r="B8" s="4" t="s">
@@ -3098,7 +3336,7 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="17"/>
+      <c r="A9" s="19"/>
       <c r="B9" s="4" t="s">
         <v>36</v>
       </c>
@@ -3107,10 +3345,10 @@
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="17"/>
+      <c r="A10" s="19"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="17">
+      <c r="A11" s="19">
         <v>45632</v>
       </c>
       <c r="B11" s="4" t="s">
@@ -3121,7 +3359,7 @@
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="17"/>
+      <c r="A12" s="19"/>
       <c r="B12" s="4" t="s">
         <v>36</v>
       </c>
@@ -3130,10 +3368,10 @@
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="17"/>
+      <c r="A13" s="19"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="17">
+      <c r="A14" s="19">
         <v>45635</v>
       </c>
       <c r="B14" s="4" t="s">
@@ -3144,7 +3382,7 @@
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="17"/>
+      <c r="A15" s="19"/>
       <c r="B15" s="4" t="s">
         <v>36</v>
       </c>
@@ -3153,7 +3391,7 @@
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="17"/>
+      <c r="A16" s="19"/>
       <c r="B16" s="4" t="s">
         <v>50</v>
       </c>
@@ -3162,7 +3400,7 @@
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="17">
+      <c r="A17" s="19">
         <v>45636</v>
       </c>
       <c r="B17" s="4" t="s">
@@ -3173,7 +3411,7 @@
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="17"/>
+      <c r="A18" s="19"/>
       <c r="B18" s="4" t="s">
         <v>55</v>
       </c>
@@ -3182,7 +3420,7 @@
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="17">
+      <c r="A19" s="19">
         <v>45637</v>
       </c>
       <c r="B19" s="4" t="s">
@@ -3193,10 +3431,10 @@
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="17"/>
+      <c r="A20" s="19"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="17">
+      <c r="A21" s="19">
         <v>45638</v>
       </c>
       <c r="B21" s="4" t="s">
@@ -3207,13 +3445,13 @@
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="17"/>
+      <c r="A22" s="19"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="17"/>
+      <c r="A23" s="19"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" s="17">
+      <c r="A24" s="19">
         <v>45639</v>
       </c>
       <c r="B24" s="4" t="s">
@@ -3224,7 +3462,7 @@
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" s="17"/>
+      <c r="A25" s="19"/>
       <c r="B25" s="4" t="s">
         <v>6</v>
       </c>
@@ -3233,10 +3471,10 @@
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" s="17"/>
+      <c r="A26" s="19"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" s="17">
+      <c r="A27" s="19">
         <v>45642</v>
       </c>
       <c r="B27" s="4" t="s">
@@ -3247,7 +3485,7 @@
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A28" s="17"/>
+      <c r="A28" s="19"/>
       <c r="B28" s="4" t="s">
         <v>76</v>
       </c>
@@ -3256,7 +3494,7 @@
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A29" s="17"/>
+      <c r="A29" s="19"/>
       <c r="B29" s="4" t="s">
         <v>112</v>
       </c>
@@ -3265,20 +3503,20 @@
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A30" s="17">
+      <c r="A30" s="19">
         <v>45643</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E30" s="4" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31" s="17"/>
+      <c r="A31" s="19"/>
       <c r="B31" s="4" t="s">
-        <v>113</v>
+        <v>156</v>
       </c>
       <c r="D31" s="4" t="s">
         <v>2</v>
@@ -3289,10 +3527,37 @@
         <v>45644</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D33" s="4" t="s">
         <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" s="8">
+        <v>45647</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35" s="8">
+        <v>45648</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A36" s="8">
+        <v>45649</v>
+      </c>
+      <c r="B36" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -3316,11 +3581,11 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53716C0D-145A-46A9-BAB1-DCBD46132A7A}">
-  <dimension ref="A1:E34"/>
+  <dimension ref="A1:E37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E34" sqref="E34"/>
+      <selection pane="bottomLeft" activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3350,7 +3615,7 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="19">
+      <c r="A2" s="21">
         <v>45628</v>
       </c>
       <c r="B2" t="s">
@@ -3361,7 +3626,7 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="19"/>
+      <c r="A3" s="21"/>
       <c r="B3" t="s">
         <v>15</v>
       </c>
@@ -3370,10 +3635,10 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="19"/>
+      <c r="A4" s="21"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="19">
+      <c r="A5" s="21">
         <v>45629</v>
       </c>
       <c r="B5" t="s">
@@ -3384,24 +3649,24 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="19"/>
+      <c r="A6" s="21"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="19"/>
+      <c r="A7" s="21"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="19">
+      <c r="A8" s="21">
         <v>45630</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="19"/>
+      <c r="A9" s="21"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="19"/>
+      <c r="A10" s="21"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="19">
+      <c r="A11" s="21">
         <v>45631</v>
       </c>
       <c r="B11" t="s">
@@ -3412,7 +3677,7 @@
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="19"/>
+      <c r="A12" s="21"/>
       <c r="B12" t="s">
         <v>38</v>
       </c>
@@ -3421,7 +3686,7 @@
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="19"/>
+      <c r="A13" s="21"/>
       <c r="B13" t="s">
         <v>94</v>
       </c>
@@ -3430,12 +3695,12 @@
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="19">
+      <c r="A14" s="21">
         <v>45632</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="19"/>
+      <c r="A15" s="21"/>
       <c r="B15" t="s">
         <v>42</v>
       </c>
@@ -3444,10 +3709,10 @@
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="19"/>
+      <c r="A16" s="21"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="19">
+      <c r="A17" s="21">
         <v>45637</v>
       </c>
       <c r="B17" t="s">
@@ -3458,7 +3723,7 @@
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="19"/>
+      <c r="A18" s="21"/>
       <c r="B18" t="s">
         <v>38</v>
       </c>
@@ -3467,7 +3732,7 @@
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="19">
+      <c r="A19" s="21">
         <v>45638</v>
       </c>
       <c r="B19" t="s">
@@ -3478,7 +3743,7 @@
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="19"/>
+      <c r="A20" s="21"/>
       <c r="B20" t="s">
         <v>101</v>
       </c>
@@ -3487,15 +3752,15 @@
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="19"/>
+      <c r="A21" s="21"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="19">
+      <c r="A22" s="21">
         <v>45639</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="19"/>
+      <c r="A23" s="21"/>
       <c r="B23" t="s">
         <v>95</v>
       </c>
@@ -3504,7 +3769,7 @@
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" s="19"/>
+      <c r="A24" s="21"/>
       <c r="B24" t="s">
         <v>102</v>
       </c>
@@ -3513,12 +3778,12 @@
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" s="19">
+      <c r="A25" s="21">
         <v>45642</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" s="19"/>
+      <c r="A26" s="21"/>
       <c r="B26" t="s">
         <v>95</v>
       </c>
@@ -3527,7 +3792,7 @@
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" s="19"/>
+      <c r="A27" s="21"/>
       <c r="B27" t="s">
         <v>104</v>
       </c>
@@ -3536,7 +3801,7 @@
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A28" s="19">
+      <c r="A28" s="21">
         <v>45643</v>
       </c>
       <c r="B28" t="s">
@@ -3544,9 +3809,9 @@
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A29" s="19"/>
+      <c r="A29" s="21"/>
       <c r="B29" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E29" t="s">
         <v>9</v>
@@ -3557,46 +3822,82 @@
         <v>45644</v>
       </c>
       <c r="B30" t="s">
+        <v>128</v>
+      </c>
+      <c r="E30" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31" s="16">
+        <v>45645</v>
+      </c>
+      <c r="B31" t="s">
         <v>129</v>
       </c>
-      <c r="E30" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31" s="14">
-        <v>45645</v>
-      </c>
-      <c r="B31" t="s">
-        <v>130</v>
-      </c>
       <c r="E31" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A32" s="14"/>
+      <c r="A32" s="16"/>
       <c r="B32" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E32" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="9">
         <v>45646</v>
       </c>
       <c r="B33" t="s">
-        <v>130</v>
-      </c>
-      <c r="C33" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+        <v>129</v>
+      </c>
+      <c r="E33" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B34" t="s">
         <v>63</v>
       </c>
       <c r="C34" t="s">
-        <v>122</v>
+        <v>121</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A35" s="14">
+        <v>45647</v>
+      </c>
+      <c r="B35" s="15" t="s">
+        <v>148</v>
+      </c>
+      <c r="C35" s="15"/>
+      <c r="D35" s="15"/>
+      <c r="E35" s="15"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A36" s="14">
+        <v>45648</v>
+      </c>
+      <c r="B36" s="15" t="s">
+        <v>149</v>
+      </c>
+      <c r="C36" s="15"/>
+      <c r="D36" s="15"/>
+      <c r="E36" s="15"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A37" s="9">
+        <v>45649</v>
+      </c>
+      <c r="B37" t="s">
+        <v>159</v>
+      </c>
+      <c r="C37" t="s">
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -3613,6 +3914,7 @@
     <mergeCell ref="A11:A13"/>
     <mergeCell ref="A14:A16"/>
   </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -3621,8 +3923,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01B6519C-CCB4-40FC-B237-0484AF135CEF}">
   <dimension ref="A1:E43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A37" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A36" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
@@ -3812,7 +4114,7 @@
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="17">
+      <c r="A22" s="19">
         <v>45637</v>
       </c>
       <c r="B22" s="4" t="s">
@@ -3823,7 +4125,7 @@
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="17"/>
+      <c r="A23" s="19"/>
       <c r="B23" s="4" t="s">
         <v>61</v>
       </c>
@@ -3832,7 +4134,7 @@
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" s="17">
+      <c r="A24" s="19">
         <v>45638</v>
       </c>
       <c r="B24" s="4" t="s">
@@ -3843,7 +4145,7 @@
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" s="17"/>
+      <c r="A25" s="19"/>
       <c r="B25" s="4" t="s">
         <v>66</v>
       </c>
@@ -3852,13 +4154,13 @@
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" s="17"/>
+      <c r="A26" s="19"/>
       <c r="E26" s="4" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" s="17">
+      <c r="A27" s="19">
         <v>45639</v>
       </c>
       <c r="B27" s="4" t="s">
@@ -3869,7 +4171,7 @@
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A28" s="17"/>
+      <c r="A28" s="19"/>
       <c r="B28" s="4" t="s">
         <v>54</v>
       </c>
@@ -3878,7 +4180,7 @@
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A29" s="17"/>
+      <c r="A29" s="19"/>
       <c r="B29" s="4" t="s">
         <v>66</v>
       </c>
@@ -3887,7 +4189,7 @@
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A30" s="17">
+      <c r="A30" s="19">
         <v>45642</v>
       </c>
       <c r="E30" s="4" t="s">
@@ -3895,13 +4197,13 @@
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31" s="17"/>
+      <c r="A31" s="19"/>
       <c r="E31" s="4" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A32" s="17">
+      <c r="A32" s="19">
         <v>45643</v>
       </c>
       <c r="B32" s="4" t="s">
@@ -3912,16 +4214,16 @@
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A33" s="17"/>
+      <c r="A33" s="19"/>
       <c r="B33" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E33" s="4" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A34" s="17"/>
+      <c r="A34" s="19"/>
       <c r="B34" s="4" t="s">
         <v>82</v>
       </c>
@@ -3930,36 +4232,36 @@
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A35" s="17">
+      <c r="A35" s="19">
         <v>45644</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D35" s="4" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A36" s="17"/>
+      <c r="A36" s="19"/>
       <c r="B36" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D36" s="4" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A37" s="17"/>
+      <c r="A37" s="19"/>
       <c r="B37" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D37" s="4" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A38" s="17"/>
+      <c r="A38" s="19"/>
       <c r="B38" s="4" t="s">
         <v>82</v>
       </c>
@@ -3968,46 +4270,46 @@
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A39" s="17">
+      <c r="A39" s="19">
         <v>45645</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A40" s="17"/>
+      <c r="A40" s="19"/>
       <c r="B40" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A41" s="19"/>
+      <c r="B41" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="C40" s="4" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A41" s="17"/>
-      <c r="B41" s="4" t="s">
-        <v>120</v>
-      </c>
       <c r="C41" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A42" s="17"/>
+      <c r="A42" s="19"/>
       <c r="B42" s="4" t="s">
         <v>82</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B43" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
   </sheetData>
